--- a/Statistics/input_files/tool_1_12_04_2024.xlsx
+++ b/Statistics/input_files/tool_1_12_04_2024.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65431337-E6C8-47B4-8C96-E6DC7C472F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2760" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>Machine Name</t>
   </si>
@@ -57,9 +58,6 @@
     <t>publisher 1</t>
   </si>
   <si>
-    <t>tool 1</t>
-  </si>
-  <si>
     <t>0.0.1</t>
   </si>
   <si>
@@ -88,13 +86,337 @@
   </si>
   <si>
     <t>0.0.2</t>
+  </si>
+  <si>
+    <t>NR1203124126</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>hall 4</t>
+  </si>
+  <si>
+    <t>NR1203124127</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>hall 5</t>
+  </si>
+  <si>
+    <t>NR1203124128</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>hall 6</t>
+  </si>
+  <si>
+    <t>NR1203124129</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>hall 7</t>
+  </si>
+  <si>
+    <t>NR1203124130</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>hall 8</t>
+  </si>
+  <si>
+    <t>NR1203124131</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>hall 9</t>
+  </si>
+  <si>
+    <t>NR1203124132</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>hall 10</t>
+  </si>
+  <si>
+    <t>NR1203124133</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>hall 11</t>
+  </si>
+  <si>
+    <t>NR1203124134</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>hall 12</t>
+  </si>
+  <si>
+    <t>NR1203124135</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>hall 13</t>
+  </si>
+  <si>
+    <t>NR1203124136</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>hall 14</t>
+  </si>
+  <si>
+    <t>NR1203124137</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>hall 15</t>
+  </si>
+  <si>
+    <t>NR1203124138</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>hall 16</t>
+  </si>
+  <si>
+    <t>NR1203124139</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>hall 17</t>
+  </si>
+  <si>
+    <t>NR1203124140</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>hall 18</t>
+  </si>
+  <si>
+    <t>NR1203124141</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>hall 19</t>
+  </si>
+  <si>
+    <t>NR1203124142</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>hall 20</t>
+  </si>
+  <si>
+    <t>NR1203124143</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>hall 21</t>
+  </si>
+  <si>
+    <t>NR1203124144</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>hall 22</t>
+  </si>
+  <si>
+    <t>NR1203124145</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>hall 23</t>
+  </si>
+  <si>
+    <t>NR1203124146</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>hall 24</t>
+  </si>
+  <si>
+    <t>NR1203124147</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>hall 25</t>
+  </si>
+  <si>
+    <t>NR1203124148</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>hall 26</t>
+  </si>
+  <si>
+    <t>NR1203124149</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>hall 27</t>
+  </si>
+  <si>
+    <t>NR1203124150</t>
+  </si>
+  <si>
+    <t>user28</t>
+  </si>
+  <si>
+    <t>hall 28</t>
+  </si>
+  <si>
+    <t>NR1203124151</t>
+  </si>
+  <si>
+    <t>user29</t>
+  </si>
+  <si>
+    <t>hall 29</t>
+  </si>
+  <si>
+    <t>NR1203124152</t>
+  </si>
+  <si>
+    <t>user30</t>
+  </si>
+  <si>
+    <t>hall 30</t>
+  </si>
+  <si>
+    <t>NR1203124153</t>
+  </si>
+  <si>
+    <t>user31</t>
+  </si>
+  <si>
+    <t>hall 31</t>
+  </si>
+  <si>
+    <t>NR1203124154</t>
+  </si>
+  <si>
+    <t>user32</t>
+  </si>
+  <si>
+    <t>hall 32</t>
+  </si>
+  <si>
+    <t>NR1203124155</t>
+  </si>
+  <si>
+    <t>user33</t>
+  </si>
+  <si>
+    <t>hall 33</t>
+  </si>
+  <si>
+    <t>NR1203124156</t>
+  </si>
+  <si>
+    <t>user34</t>
+  </si>
+  <si>
+    <t>hall 34</t>
+  </si>
+  <si>
+    <t>NR1203124157</t>
+  </si>
+  <si>
+    <t>user35</t>
+  </si>
+  <si>
+    <t>hall 35</t>
+  </si>
+  <si>
+    <t>NR1203124158</t>
+  </si>
+  <si>
+    <t>user36</t>
+  </si>
+  <si>
+    <t>hall 36</t>
+  </si>
+  <si>
+    <t>NR1203124159</t>
+  </si>
+  <si>
+    <t>user37</t>
+  </si>
+  <si>
+    <t>hall 37</t>
+  </si>
+  <si>
+    <t>NR1203124160</t>
+  </si>
+  <si>
+    <t>user38</t>
+  </si>
+  <si>
+    <t>hall 38</t>
+  </si>
+  <si>
+    <t>GNDV</t>
+  </si>
+  <si>
+    <t>Generic Diagnostic Viewer</t>
+  </si>
+  <si>
+    <t>ASML Generic Diagnostic Viewer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +428,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,8 +465,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,11 +743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,63 +801,904 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{A901BA6D-EA19-4981-9786-AAB1AEC4AB3A}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{9BE47D5D-EA79-4283-93E4-5B6B1854AB6E}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{5D63A940-DD1C-4A70-8B79-BBDA52205636}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{BB4D8DF1-C81F-4747-A500-2DC2AECCC858}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{E7DDE9BB-94B6-430D-812A-7EEAC3F2A0B4}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{B18E654B-6C42-435A-B2CC-EDE2CEAB7D3E}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{CDA7CFB7-9447-4D22-B8C4-8F9BAE31579C}"/>
+    <hyperlink ref="C26" r:id="rId9" xr:uid="{DF904787-4E68-4D25-A98A-65E70E780789}"/>
+    <hyperlink ref="C29" r:id="rId10" xr:uid="{E0CB669B-8A93-486D-A77F-F72A99B52FEE}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{398BEE32-44E2-4516-BBB9-C19B70BD4373}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{A6707175-4BAB-4C08-8D46-74433835C481}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{15D882CD-60F7-40F8-8493-871441BDABAC}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{88178C3F-F743-466A-B191-074926915948}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{A32801D1-6E0E-40E4-B7A7-5180906F89F9}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{9FE9D03C-810C-4C21-84B0-A02B6D6F21F1}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{674C7D33-0302-47ED-A03C-26D2EE10F6D6}"/>
+    <hyperlink ref="C27" r:id="rId18" xr:uid="{96574E66-C7C5-4287-A92B-3D8811B4B8F4}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{6E75DD9B-E90D-450C-9428-F2FB7462F3AF}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{92EDC885-33DD-448F-B7ED-ED51496E843E}"/>
+    <hyperlink ref="C10" r:id="rId21" xr:uid="{1E222231-E3F8-4736-93E6-EEB018014E41}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{98C380A1-6244-4A42-8580-F0AABB7BBB39}"/>
+    <hyperlink ref="C16" r:id="rId23" xr:uid="{7240E436-1D9A-4979-AF7E-A6577C16E30D}"/>
+    <hyperlink ref="C19" r:id="rId24" xr:uid="{3AB08EC1-6939-4174-A38D-9B73EE7CB4F9}"/>
+    <hyperlink ref="C22" r:id="rId25" xr:uid="{C6F46BEA-7CD8-4AD5-B30D-E0F5FD2D7756}"/>
+    <hyperlink ref="C25" r:id="rId26" xr:uid="{9C71548B-67C9-406D-B043-D3E93A6A0FBA}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{2ECFE68C-2B5A-4CB1-9225-988CD24AEBE6}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{F846EA42-45FF-492D-A351-96E51057DAFA}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{1E018149-26BF-4000-AF02-3ECFD8EA784D}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{55E78880-2B5C-4143-900A-ADD54DAF2BEB}"/>
+    <hyperlink ref="C34" r:id="rId31" xr:uid="{B4A74066-1452-46E4-A885-2E18F5F8CFBE}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{E07E02D3-8FFF-4DD2-9E36-5C37A8031E10}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{E83E38D9-801C-48FE-9F5F-9E87E9B72F19}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{8635703C-3D5A-46AD-84FE-37C69EFE861C}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{97A16807-5D84-47C1-AE9C-FE1546059E0A}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{9D2A563F-53A8-4D92-9ACC-5B1249359A69}"/>
+    <hyperlink ref="C3" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
